--- a/28-Excel/Excel常用函数.xlsx
+++ b/28-Excel/Excel常用函数.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fox/Library/Mobile Documents/com~apple~CloudDocs/workspace/notes/28-Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0973032C-5C6D-B04F-AA2D-3CCFA02D25EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12FA025-7885-9347-819B-09D7B3D9B4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="500" windowWidth="27800" windowHeight="16940" xr2:uid="{3AAD31AC-D7C2-FB4F-A25F-99E945A69125}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>If函数</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -152,6 +152,34 @@
   </si>
   <si>
     <t>=SUMPRODUCT(C21:C24,D21:D24)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sumif函数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>=SUMIF(B30:B33,"水果3",C30:C33)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sumifs函数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Countif</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Countifs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUBTOTAL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -219,7 +247,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -243,6 +271,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -558,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E328FFDC-3326-0A43-A54A-FA91D7019B5F}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -802,9 +833,98 @@
         <v>30</v>
       </c>
     </row>
+    <row r="28" spans="1:7" s="1" customFormat="1">
+      <c r="A28" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="B29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="B30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="B31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="5">
+        <f>SUMIF(B30:B33,"水果1",C30:C33)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="B32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="2">
+        <v>3</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="5">
+        <f>SUMIF(B30:B33,"水果3",C30:C33)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="B33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="B35" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="1" customFormat="1">
+      <c r="A37" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="6" customFormat="1">
+      <c r="A45" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="6" customFormat="1">
+      <c r="A48" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="F2:G2"/>
+    <mergeCell ref="E30:F30"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
